--- a/example/iqp5ela.xlsx
+++ b/example/iqp5ela.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48424292-D1CB-40CD-B0A8-25E2B4D88977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4A415-172C-4394-B5A8-0329ECD4C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33390" yWindow="3750" windowWidth="22800" windowHeight="11385" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
+    <workbookView xWindow="30720" yWindow="2550" windowWidth="22800" windowHeight="11385" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -414,356 +414,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069F1392-3CC3-4184-A1E1-29EDB1F1BD72}">
-  <dimension ref="A3:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>0</v>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1092,5 +1120,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/example/iqp5ela.xlsx
+++ b/example/iqp5ela.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4A415-172C-4394-B5A8-0329ECD4C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FBB857-CE08-4E9C-BC06-BB5963D82245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="2550" windowWidth="22800" windowHeight="11385" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069F1392-3CC3-4184-A1E1-29EDB1F1BD72}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +429,9 @@
       <c r="P1" t="s">
         <v>1</v>
       </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
@@ -570,6 +573,9 @@
       <c r="N6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -703,6 +709,9 @@
       <c r="N10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -777,8 +786,11 @@
       <c r="E14" t="s">
         <v>0</v>
       </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
       <c r="I14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -793,329 +805,382 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>1</v>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
         <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
       </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>2</v>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
       <c r="I33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/example/iqp5ela.xlsx
+++ b/example/iqp5ela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FBB857-CE08-4E9C-BC06-BB5963D82245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694106DF-84DF-4C9C-99FE-FD0624112FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069F1392-3CC3-4184-A1E1-29EDB1F1BD72}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
         <v>1</v>
       </c>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -468,7 +468,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -500,8 +500,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -538,8 +540,16 @@
       <c r="P5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -576,8 +586,18 @@
       <c r="P6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -611,8 +631,20 @@
       <c r="O7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,8 +673,18 @@
         <v>2</v>
       </c>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -680,8 +722,19 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -712,8 +765,15 @@
       <c r="P10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AF10" s="2"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -741,8 +801,14 @@
       <c r="O11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -767,8 +833,12 @@
       <c r="L12" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -781,8 +851,11 @@
       <c r="M13" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AE13" s="2"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>0</v>
       </c>
@@ -804,6 +877,9 @@
       <c r="N14" t="s">
         <v>1</v>
       </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AE14" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">

--- a/example/iqp5ela.xlsx
+++ b/example/iqp5ela.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694106DF-84DF-4C9C-99FE-FD0624112FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D964E1-2627-4723-8800-C175C81F216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
+    <workbookView xWindow="15750" yWindow="2895" windowWidth="27810" windowHeight="16635" activeTab="2" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="10" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -416,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069F1392-3CC3-4184-A1E1-29EDB1F1BD72}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,4 +1265,1262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05BA5FC-D951-41B9-BF92-D5265B3CAD76}">
+  <dimension ref="A3:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26:Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6B4BD4-4D88-471B-8D78-C1ADAEA48632}">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/iqp5ela.xlsx
+++ b/example/iqp5ela.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D964E1-2627-4723-8800-C175C81F216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357330AA-8949-4492-8EC3-2B66C3ABF55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="2895" windowWidth="27810" windowHeight="16635" activeTab="2" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +420,7 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27:Q31"/>
+      <selection activeCell="P21" sqref="P21:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +871,7 @@
       <c r="J14" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -1269,19 +1270,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05BA5FC-D951-41B9-BF92-D5265B3CAD76}">
-  <dimension ref="A3:Q36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26:Q29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1292,10 +1345,22 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1304,19 +1369,19 @@
       <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1331,17 +1396,17 @@
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="P5" s="2"/>
     </row>
@@ -1352,24 +1417,18 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,23 +1438,17 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
@@ -1403,60 +1456,43 @@
       <c r="I7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
@@ -1464,85 +1500,50 @@
       <c r="K9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="M14" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1905,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6B4BD4-4D88-471B-8D78-C1ADAEA48632}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:O30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,267 +2259,267 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="J30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/iqp5ela.xlsx
+++ b/example/iqp5ela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357330AA-8949-4492-8EC3-2B66C3ABF55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3810D4-5D14-43E4-8D6F-4158294B355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="27810" windowHeight="16635" activeTab="2" xr2:uid="{9BFD8C57-7C79-4E21-B42B-728FDC4519BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,11 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,7 +870,7 @@
       <c r="J14" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -1908,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6B4BD4-4D88-471B-8D78-C1ADAEA48632}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
